--- a/database/industries/methanol/shekolor/balancesheet/quarterly.xlsx
+++ b/database/industries/methanol/shekolor/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekolor\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBF98B0-7FFF-485D-A36C-3520B4074FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A00316F-84B6-4BAF-B8DE-E2CA7F9FEEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="74">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/02</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/08</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/09</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1400/08</t>
   </si>
   <si>
@@ -53,6 +68,18 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-03-30</t>
+  </si>
+  <si>
+    <t>1400-10-08 (11)</t>
+  </si>
+  <si>
+    <t>1399-09-30</t>
+  </si>
+  <si>
+    <t>1400-07-29</t>
   </si>
   <si>
     <t>1401-10-28 (9)</t>
@@ -698,20 +725,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +749,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +765,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +781,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +795,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +811,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +827,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +841,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +867,57 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +925,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,119 +941,199 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
-        <v>18</v>
+      <c r="D12" s="15">
+        <v>527334</v>
       </c>
       <c r="E12" s="15">
+        <v>697438</v>
+      </c>
+      <c r="F12" s="15">
+        <v>845058</v>
+      </c>
+      <c r="G12" s="15">
+        <v>493536</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="15">
         <v>965648</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>1598224</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>1383789</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>1947797</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>18</v>
+      <c r="D13" s="11">
+        <v>5706</v>
       </c>
       <c r="E13" s="11">
         <v>2109</v>
       </c>
       <c r="F13" s="11">
+        <v>2109</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2109</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2109</v>
+      </c>
+      <c r="K13" s="11">
         <v>3992</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>3992</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>3992</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>18</v>
+      <c r="D14" s="15">
+        <v>361680</v>
       </c>
       <c r="E14" s="15">
+        <v>299937</v>
+      </c>
+      <c r="F14" s="15">
+        <v>268992</v>
+      </c>
+      <c r="G14" s="15">
+        <v>392078</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="15">
         <v>459208</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>349552</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>577155</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>408840</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
-        <v>18</v>
+      <c r="D15" s="11">
+        <v>344454</v>
       </c>
       <c r="E15" s="11">
+        <v>655745</v>
+      </c>
+      <c r="F15" s="11">
+        <v>506011</v>
+      </c>
+      <c r="G15" s="11">
+        <v>816243</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="11">
         <v>901798</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>1041736</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>1098976</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>1168259</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>18</v>
+      <c r="D16" s="15">
+        <v>108322</v>
       </c>
       <c r="E16" s="15">
+        <v>145586</v>
+      </c>
+      <c r="F16" s="15">
+        <v>113478</v>
+      </c>
+      <c r="G16" s="15">
+        <v>353822</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="15">
         <v>222156</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>84843</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>69790</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>96214</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
-        <v>18</v>
+      <c r="D17" s="11">
+        <v>0</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
@@ -966,80 +1144,140 @@
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>18</v>
+      <c r="D18" s="17">
+        <v>1347496</v>
       </c>
       <c r="E18" s="17">
+        <v>1800815</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1735648</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2057788</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="17">
         <v>2550919</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>3078347</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>3133702</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>3625102</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11" t="s">
-        <v>18</v>
+      <c r="D19" s="11">
+        <v>0</v>
       </c>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="11">
         <v>97876</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>93439</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>86494</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>61257</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>18</v>
+      <c r="D20" s="15">
+        <v>146220</v>
       </c>
       <c r="E20" s="15">
+        <v>446020</v>
+      </c>
+      <c r="F20" s="15">
+        <v>308220</v>
+      </c>
+      <c r="G20" s="15">
+        <v>171520</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="15">
         <v>172470</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>143970</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>843970</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>1398060</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
-        <v>18</v>
+      <c r="D21" s="11">
+        <v>0</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
@@ -1050,139 +1288,244 @@
       <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>18</v>
+      <c r="D22" s="15">
+        <v>851521</v>
       </c>
       <c r="E22" s="15">
+        <v>869565</v>
+      </c>
+      <c r="F22" s="15">
+        <v>771249</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1067925</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="15">
         <v>1158383</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>1255925</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>1277542</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>1653196</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
-        <v>18</v>
+      <c r="D23" s="11">
+        <v>11412</v>
       </c>
       <c r="E23" s="11">
+        <v>43231</v>
+      </c>
+      <c r="F23" s="11">
+        <v>42668</v>
+      </c>
+      <c r="G23" s="11">
+        <v>43648</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="11">
         <v>45480</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>46161</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>47835</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>48858</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
-        <v>18</v>
+      <c r="D25" s="11">
+        <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>31990</v>
+        <v>31991</v>
       </c>
       <c r="F25" s="11">
-        <v>31990</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <v>31990</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="11">
         <v>31990</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K25" s="11">
+        <v>31990</v>
+      </c>
+      <c r="L25" s="11">
+        <v>31990</v>
+      </c>
+      <c r="M25" s="11">
+        <v>31990</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>18</v>
+      <c r="D26" s="17">
+        <v>1009153</v>
       </c>
       <c r="E26" s="17">
+        <v>1390807</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1122137</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1315083</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="17">
         <v>1506199</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>1571485</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>2287831</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>3193361</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
-        <v>18</v>
+      <c r="D27" s="19">
+        <v>2356649</v>
       </c>
       <c r="E27" s="19">
+        <v>3191622</v>
+      </c>
+      <c r="F27" s="19">
+        <v>2857785</v>
+      </c>
+      <c r="G27" s="19">
+        <v>3372871</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="19">
         <v>4057118</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>4649832</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>5421533</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>6818463</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,140 +1533,235 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
-        <v>18</v>
+      <c r="D29" s="15">
+        <v>216538</v>
       </c>
       <c r="E29" s="15">
+        <v>393504</v>
+      </c>
+      <c r="F29" s="15">
+        <v>283162</v>
+      </c>
+      <c r="G29" s="15">
+        <v>623445</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="15">
         <v>453993</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>614536</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>674232</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>560708</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15" t="s">
-        <v>18</v>
+      <c r="D31" s="15">
+        <v>29570</v>
       </c>
       <c r="E31" s="15">
+        <v>98623</v>
+      </c>
+      <c r="F31" s="15">
+        <v>61646</v>
+      </c>
+      <c r="G31" s="15">
+        <v>78527</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="15">
         <v>147825</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>73908</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>144442</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>182376</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="11" t="s">
-        <v>18</v>
+      <c r="D32" s="11">
+        <v>83218</v>
       </c>
       <c r="E32" s="11">
+        <v>161968</v>
+      </c>
+      <c r="F32" s="11">
+        <v>98258</v>
+      </c>
+      <c r="G32" s="11">
+        <v>85766</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="11">
         <v>318881</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>437328</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>561123</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>660295</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
-        <v>18</v>
+      <c r="D33" s="15">
+        <v>97489</v>
       </c>
       <c r="E33" s="15">
+        <v>478065</v>
+      </c>
+      <c r="F33" s="15">
+        <v>925501</v>
+      </c>
+      <c r="G33" s="15">
+        <v>675631</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="15">
         <v>758891</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>336291</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>140151</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>135598</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>18</v>
+      <c r="D34" s="11">
+        <v>288526</v>
       </c>
       <c r="E34" s="11">
+        <v>541084</v>
+      </c>
+      <c r="F34" s="11">
+        <v>245229</v>
+      </c>
+      <c r="G34" s="11">
+        <v>382304</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="11">
         <v>123386</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>10995</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>9552</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>8241</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>18</v>
+      <c r="D35" s="15">
+        <v>54827</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -1334,17 +1772,32 @@
       <c r="G35" s="15">
         <v>0</v>
       </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
-        <v>18</v>
+      <c r="D36" s="11">
+        <v>0</v>
       </c>
       <c r="E36" s="11">
         <v>0</v>
@@ -1355,38 +1808,68 @@
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>18</v>
+      <c r="D37" s="17">
+        <v>770168</v>
       </c>
       <c r="E37" s="17">
+        <v>1673244</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1613796</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1845673</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="17">
         <v>1802976</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>1473058</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>1529500</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>1547218</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
-        <v>18</v>
+      <c r="D38" s="11">
+        <v>0</v>
       </c>
       <c r="E38" s="11">
         <v>0</v>
@@ -1397,118 +1880,208 @@
       <c r="G38" s="11">
         <v>0</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
-        <v>18</v>
+      <c r="D40" s="11">
+        <v>216638</v>
       </c>
       <c r="E40" s="11">
+        <v>31074</v>
+      </c>
+      <c r="F40" s="11">
+        <v>74875</v>
+      </c>
+      <c r="G40" s="11">
+        <v>31074</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="11">
         <v>8315</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
-        <v>18</v>
+      <c r="D41" s="15">
+        <v>24848</v>
       </c>
       <c r="E41" s="15">
+        <v>45467</v>
+      </c>
+      <c r="F41" s="15">
+        <v>46803</v>
+      </c>
+      <c r="G41" s="15">
+        <v>81333</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="15">
         <v>96273</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>130268</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>144475</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>157260</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
-        <v>18</v>
+      <c r="D42" s="19">
+        <v>241486</v>
       </c>
       <c r="E42" s="19">
+        <v>76541</v>
+      </c>
+      <c r="F42" s="19">
+        <v>121678</v>
+      </c>
+      <c r="G42" s="19">
+        <v>112407</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="19">
         <v>104588</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>130268</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>144475</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>157260</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="17" t="s">
-        <v>18</v>
+      <c r="D43" s="17">
+        <v>1011654</v>
       </c>
       <c r="E43" s="17">
+        <v>1749785</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1735474</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1958080</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="17">
         <v>1907564</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>1603326</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>1673975</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>1704478</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,14 +2089,19 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>18</v>
+      <c r="D45" s="15">
+        <v>500000</v>
       </c>
       <c r="E45" s="15">
         <v>500000</v>
@@ -1532,19 +2110,34 @@
         <v>500000</v>
       </c>
       <c r="G45" s="15">
+        <v>500000</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="15">
+        <v>500000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>500000</v>
+      </c>
+      <c r="L45" s="15">
         <v>1000000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>1000000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
-        <v>18</v>
+      <c r="D46" s="11">
+        <v>0</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
@@ -1555,59 +2148,104 @@
       <c r="G46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
-        <v>18</v>
+      <c r="D47" s="15">
+        <v>0</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
       </c>
       <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
         <v>500000</v>
       </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>18</v>
+      <c r="D48" s="11">
+        <v>0</v>
       </c>
       <c r="E48" s="11">
+        <v>-183352</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>-379697</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="11">
         <v>-280345</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-203394</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-259766</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-258271</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>18</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -1618,17 +2256,32 @@
       <c r="G49" s="15">
         <v>0</v>
       </c>
-      <c r="H49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
-        <v>18</v>
+      <c r="D50" s="11">
+        <v>50000</v>
       </c>
       <c r="E50" s="11">
         <v>50000</v>
@@ -1637,19 +2290,34 @@
         <v>50000</v>
       </c>
       <c r="G50" s="11">
+        <v>50000</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="11">
+        <v>50000</v>
+      </c>
+      <c r="K50" s="11">
+        <v>50000</v>
+      </c>
+      <c r="L50" s="11">
         <v>100000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>100000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="15" t="s">
-        <v>18</v>
+      <c r="D51" s="15">
+        <v>0</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
@@ -1660,38 +2328,68 @@
       <c r="G51" s="15">
         <v>0</v>
       </c>
-      <c r="H51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H51" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="15" t="s">
-        <v>18</v>
+      <c r="D53" s="15">
+        <v>0</v>
       </c>
       <c r="E53" s="15">
         <v>0</v>
@@ -1702,38 +2400,68 @@
       <c r="G53" s="15">
         <v>0</v>
       </c>
-      <c r="H53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H53" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
-        <v>18</v>
+      <c r="D55" s="15">
+        <v>0</v>
       </c>
       <c r="E55" s="15">
         <v>0</v>
@@ -1744,74 +2472,134 @@
       <c r="G55" s="15">
         <v>0</v>
       </c>
-      <c r="H55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H55" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11" t="s">
-        <v>18</v>
+      <c r="D56" s="11">
+        <v>794995</v>
       </c>
       <c r="E56" s="11">
+        <v>1075189</v>
+      </c>
+      <c r="F56" s="11">
+        <v>572311</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1244488</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="11">
         <v>1879899</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>2199900</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>2907324</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>4272256</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="17" t="s">
-        <v>18</v>
+      <c r="D57" s="17">
+        <v>1344995</v>
       </c>
       <c r="E57" s="17">
+        <v>1441837</v>
+      </c>
+      <c r="F57" s="17">
+        <v>1122311</v>
+      </c>
+      <c r="G57" s="17">
+        <v>1414791</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="17">
         <v>2149554</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>3046506</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>3747558</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>5113985</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
-        <v>18</v>
+      <c r="D58" s="19">
+        <v>2356649</v>
       </c>
       <c r="E58" s="19">
+        <v>3191622</v>
+      </c>
+      <c r="F58" s="19">
+        <v>2857785</v>
+      </c>
+      <c r="G58" s="19">
+        <v>3372871</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="19">
         <v>4057118</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>4649832</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>5421533</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>6818463</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2607,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/methanol/shekolor/balancesheet/quarterly.xlsx
+++ b/database/industries/methanol/shekolor/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A00316F-84B6-4BAF-B8DE-E2CA7F9FEEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC086DB7-CD3C-4CDD-B29A-8AD8AE029A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/02</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
@@ -49,7 +46,7 @@
     <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1400/09</t>
+    <t>فصل سوم منتهی به 1400/08</t>
   </si>
   <si>
     <t>فصل چهارم منتهی به 1400/08</t>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/08</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-03-30</t>
-  </si>
-  <si>
     <t>1400-10-08 (11)</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
     <t>1400-07-29</t>
   </si>
   <si>
+    <t>1401-12-29</t>
+  </si>
+  <si>
     <t>1401-10-28 (9)</t>
   </si>
   <si>
@@ -94,7 +94,7 @@
     <t>1401-06-30</t>
   </si>
   <si>
-    <t>1401-10-28 (3)</t>
+    <t>1401-12-29 (4)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -729,19 +729,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -755,7 +755,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -787,7 +787,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -801,7 +801,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -847,7 +847,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -900,24 +900,26 @@
       <c r="G9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="I9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -931,7 +933,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
@@ -947,49 +949,49 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>527334</v>
+        <v>697438</v>
       </c>
       <c r="E12" s="15">
-        <v>697438</v>
+        <v>845058</v>
       </c>
       <c r="F12" s="15">
-        <v>845058</v>
+        <v>493536</v>
       </c>
       <c r="G12" s="15">
-        <v>493536</v>
+        <v>707883</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>27</v>
+      <c r="I12" s="15">
+        <v>965648</v>
       </c>
       <c r="J12" s="15">
-        <v>965648</v>
+        <v>1598224</v>
       </c>
       <c r="K12" s="15">
-        <v>1598224</v>
+        <v>1383789</v>
       </c>
       <c r="L12" s="15">
-        <v>1383789</v>
+        <v>1947797</v>
       </c>
       <c r="M12" s="15">
-        <v>1947797</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2579597</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>5706</v>
+        <v>2109</v>
       </c>
       <c r="E13" s="11">
         <v>2109</v>
@@ -1003,11 +1005,11 @@
       <c r="H13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>27</v>
+      <c r="I13" s="11">
+        <v>2109</v>
       </c>
       <c r="J13" s="11">
-        <v>2109</v>
+        <v>3992</v>
       </c>
       <c r="K13" s="11">
         <v>3992</v>
@@ -1019,115 +1021,115 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>361680</v>
+        <v>299937</v>
       </c>
       <c r="E14" s="15">
-        <v>299937</v>
+        <v>268992</v>
       </c>
       <c r="F14" s="15">
-        <v>268992</v>
+        <v>392078</v>
       </c>
       <c r="G14" s="15">
-        <v>392078</v>
+        <v>415226</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>27</v>
+      <c r="I14" s="15">
+        <v>459208</v>
       </c>
       <c r="J14" s="15">
-        <v>459208</v>
+        <v>349552</v>
       </c>
       <c r="K14" s="15">
-        <v>349552</v>
+        <v>577155</v>
       </c>
       <c r="L14" s="15">
-        <v>577155</v>
+        <v>408840</v>
       </c>
       <c r="M14" s="15">
-        <v>408840</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>627325</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>344454</v>
+        <v>655745</v>
       </c>
       <c r="E15" s="11">
-        <v>655745</v>
+        <v>506011</v>
       </c>
       <c r="F15" s="11">
-        <v>506011</v>
+        <v>816243</v>
       </c>
       <c r="G15" s="11">
-        <v>816243</v>
+        <v>931569</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>27</v>
+      <c r="I15" s="11">
+        <v>901798</v>
       </c>
       <c r="J15" s="11">
-        <v>901798</v>
+        <v>1041736</v>
       </c>
       <c r="K15" s="11">
-        <v>1041736</v>
+        <v>1098976</v>
       </c>
       <c r="L15" s="11">
-        <v>1098976</v>
+        <v>1168259</v>
       </c>
       <c r="M15" s="11">
-        <v>1168259</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1290944</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>108322</v>
+        <v>145586</v>
       </c>
       <c r="E16" s="15">
-        <v>145586</v>
+        <v>113478</v>
       </c>
       <c r="F16" s="15">
-        <v>113478</v>
+        <v>353822</v>
       </c>
       <c r="G16" s="15">
-        <v>353822</v>
+        <v>76095</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>27</v>
+      <c r="I16" s="15">
+        <v>222156</v>
       </c>
       <c r="J16" s="15">
-        <v>222156</v>
+        <v>84843</v>
       </c>
       <c r="K16" s="15">
-        <v>84843</v>
+        <v>69790</v>
       </c>
       <c r="L16" s="15">
-        <v>69790</v>
+        <v>96214</v>
       </c>
       <c r="M16" s="15">
-        <v>96214</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>360390</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1147,8 +1149,8 @@
       <c r="H17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>27</v>
+      <c r="I17" s="11">
+        <v>0</v>
       </c>
       <c r="J17" s="11">
         <v>0</v>
@@ -1163,43 +1165,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>1347496</v>
+        <v>1800815</v>
       </c>
       <c r="E18" s="17">
-        <v>1800815</v>
+        <v>1735648</v>
       </c>
       <c r="F18" s="17">
-        <v>1735648</v>
+        <v>2057788</v>
       </c>
       <c r="G18" s="17">
-        <v>2057788</v>
+        <v>2132882</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>27</v>
+      <c r="I18" s="17">
+        <v>2550919</v>
       </c>
       <c r="J18" s="17">
-        <v>2550919</v>
+        <v>3078347</v>
       </c>
       <c r="K18" s="17">
-        <v>3078347</v>
+        <v>3133702</v>
       </c>
       <c r="L18" s="17">
-        <v>3133702</v>
+        <v>3625102</v>
       </c>
       <c r="M18" s="17">
-        <v>3625102</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4862248</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1219,59 +1221,59 @@
       <c r="H19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>27</v>
+      <c r="I19" s="11">
+        <v>97876</v>
       </c>
       <c r="J19" s="11">
-        <v>97876</v>
+        <v>93439</v>
       </c>
       <c r="K19" s="11">
-        <v>93439</v>
+        <v>86494</v>
       </c>
       <c r="L19" s="11">
-        <v>86494</v>
+        <v>61257</v>
       </c>
       <c r="M19" s="11">
-        <v>61257</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>75490</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>146220</v>
+        <v>446020</v>
       </c>
       <c r="E20" s="15">
-        <v>446020</v>
+        <v>308220</v>
       </c>
       <c r="F20" s="15">
-        <v>308220</v>
+        <v>171520</v>
       </c>
       <c r="G20" s="15">
-        <v>171520</v>
+        <v>172470</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>27</v>
+      <c r="I20" s="15">
+        <v>172470</v>
       </c>
       <c r="J20" s="15">
-        <v>172470</v>
+        <v>143970</v>
       </c>
       <c r="K20" s="15">
-        <v>143970</v>
+        <v>843970</v>
       </c>
       <c r="L20" s="15">
-        <v>843970</v>
+        <v>1398060</v>
       </c>
       <c r="M20" s="15">
         <v>1398060</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1291,8 +1293,8 @@
       <c r="H21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>27</v>
+      <c r="I21" s="11">
+        <v>0</v>
       </c>
       <c r="J21" s="11">
         <v>0</v>
@@ -1307,79 +1309,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>851521</v>
+        <v>869565</v>
       </c>
       <c r="E22" s="15">
-        <v>869565</v>
+        <v>771249</v>
       </c>
       <c r="F22" s="15">
-        <v>771249</v>
+        <v>1067925</v>
       </c>
       <c r="G22" s="15">
-        <v>1067925</v>
+        <v>1084813</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>27</v>
+      <c r="I22" s="15">
+        <v>1158383</v>
       </c>
       <c r="J22" s="15">
-        <v>1158383</v>
+        <v>1255925</v>
       </c>
       <c r="K22" s="15">
-        <v>1255925</v>
+        <v>1277542</v>
       </c>
       <c r="L22" s="15">
-        <v>1277542</v>
+        <v>1653196</v>
       </c>
       <c r="M22" s="15">
-        <v>1653196</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2072287</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>11412</v>
+        <v>43231</v>
       </c>
       <c r="E23" s="11">
-        <v>43231</v>
+        <v>42668</v>
       </c>
       <c r="F23" s="11">
-        <v>42668</v>
+        <v>43648</v>
       </c>
       <c r="G23" s="11">
-        <v>43648</v>
+        <v>44274</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>27</v>
+      <c r="I23" s="11">
+        <v>45480</v>
       </c>
       <c r="J23" s="11">
-        <v>45480</v>
+        <v>46161</v>
       </c>
       <c r="K23" s="11">
-        <v>46161</v>
+        <v>47835</v>
       </c>
       <c r="L23" s="11">
-        <v>47835</v>
+        <v>48858</v>
       </c>
       <c r="M23" s="11">
         <v>48858</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1415,19 +1417,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>31991</v>
       </c>
       <c r="E25" s="11">
-        <v>31991</v>
+        <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>0</v>
+        <v>31990</v>
       </c>
       <c r="G25" s="11">
         <v>31990</v>
@@ -1435,8 +1437,8 @@
       <c r="H25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>27</v>
+      <c r="I25" s="11">
+        <v>31990</v>
       </c>
       <c r="J25" s="11">
         <v>31990</v>
@@ -1451,79 +1453,79 @@
         <v>31990</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>1009153</v>
+        <v>1390807</v>
       </c>
       <c r="E26" s="17">
-        <v>1390807</v>
+        <v>1122137</v>
       </c>
       <c r="F26" s="17">
-        <v>1122137</v>
+        <v>1315083</v>
       </c>
       <c r="G26" s="17">
-        <v>1315083</v>
+        <v>1333547</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="17" t="s">
-        <v>27</v>
+      <c r="I26" s="17">
+        <v>1506199</v>
       </c>
       <c r="J26" s="17">
-        <v>1506199</v>
+        <v>1571485</v>
       </c>
       <c r="K26" s="17">
-        <v>1571485</v>
+        <v>2287831</v>
       </c>
       <c r="L26" s="17">
-        <v>2287831</v>
+        <v>3193361</v>
       </c>
       <c r="M26" s="17">
-        <v>3193361</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3626685</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>2356649</v>
+        <v>3191622</v>
       </c>
       <c r="E27" s="19">
-        <v>3191622</v>
+        <v>2857785</v>
       </c>
       <c r="F27" s="19">
-        <v>2857785</v>
+        <v>3372871</v>
       </c>
       <c r="G27" s="19">
-        <v>3372871</v>
+        <v>3466429</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>27</v>
+      <c r="I27" s="19">
+        <v>4057118</v>
       </c>
       <c r="J27" s="19">
-        <v>4057118</v>
+        <v>4649832</v>
       </c>
       <c r="K27" s="19">
-        <v>4649832</v>
+        <v>5421533</v>
       </c>
       <c r="L27" s="19">
-        <v>5421533</v>
+        <v>6818463</v>
       </c>
       <c r="M27" s="19">
-        <v>6818463</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>8488933</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
@@ -1539,43 +1541,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>216538</v>
+        <v>393504</v>
       </c>
       <c r="E29" s="15">
-        <v>393504</v>
+        <v>283162</v>
       </c>
       <c r="F29" s="15">
-        <v>283162</v>
+        <v>623445</v>
       </c>
       <c r="G29" s="15">
-        <v>623445</v>
+        <v>435011</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>27</v>
+      <c r="I29" s="15">
+        <v>453993</v>
       </c>
       <c r="J29" s="15">
-        <v>453993</v>
+        <v>614536</v>
       </c>
       <c r="K29" s="15">
-        <v>614536</v>
+        <v>674232</v>
       </c>
       <c r="L29" s="15">
-        <v>674232</v>
+        <v>560708</v>
       </c>
       <c r="M29" s="15">
-        <v>560708</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>714183</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>45</v>
       </c>
@@ -1611,157 +1613,157 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>29570</v>
+        <v>98623</v>
       </c>
       <c r="E31" s="15">
-        <v>98623</v>
+        <v>61646</v>
       </c>
       <c r="F31" s="15">
-        <v>61646</v>
+        <v>78527</v>
       </c>
       <c r="G31" s="15">
-        <v>78527</v>
+        <v>114797</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="15" t="s">
-        <v>27</v>
+      <c r="I31" s="15">
+        <v>147825</v>
       </c>
       <c r="J31" s="15">
-        <v>147825</v>
+        <v>73908</v>
       </c>
       <c r="K31" s="15">
-        <v>73908</v>
+        <v>144442</v>
       </c>
       <c r="L31" s="15">
-        <v>144442</v>
+        <v>182376</v>
       </c>
       <c r="M31" s="15">
-        <v>182376</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>295493</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>83218</v>
+        <v>161968</v>
       </c>
       <c r="E32" s="11">
-        <v>161968</v>
+        <v>98258</v>
       </c>
       <c r="F32" s="11">
-        <v>98258</v>
+        <v>85766</v>
       </c>
       <c r="G32" s="11">
-        <v>85766</v>
+        <v>160702</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>27</v>
+      <c r="I32" s="11">
+        <v>318881</v>
       </c>
       <c r="J32" s="11">
-        <v>318881</v>
+        <v>437328</v>
       </c>
       <c r="K32" s="11">
-        <v>437328</v>
+        <v>561123</v>
       </c>
       <c r="L32" s="11">
-        <v>561123</v>
+        <v>660295</v>
       </c>
       <c r="M32" s="11">
-        <v>660295</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>879245</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>97489</v>
+        <v>478065</v>
       </c>
       <c r="E33" s="15">
-        <v>478065</v>
+        <v>925501</v>
       </c>
       <c r="F33" s="15">
-        <v>925501</v>
+        <v>675631</v>
       </c>
       <c r="G33" s="15">
-        <v>675631</v>
+        <v>567845</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>27</v>
+      <c r="I33" s="15">
+        <v>758891</v>
       </c>
       <c r="J33" s="15">
-        <v>758891</v>
+        <v>336291</v>
       </c>
       <c r="K33" s="15">
-        <v>336291</v>
+        <v>140151</v>
       </c>
       <c r="L33" s="15">
-        <v>140151</v>
+        <v>135598</v>
       </c>
       <c r="M33" s="15">
-        <v>135598</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3081445</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>288526</v>
+        <v>541084</v>
       </c>
       <c r="E34" s="11">
-        <v>541084</v>
+        <v>245229</v>
       </c>
       <c r="F34" s="11">
-        <v>245229</v>
+        <v>382304</v>
       </c>
       <c r="G34" s="11">
-        <v>382304</v>
+        <v>297478</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>27</v>
+      <c r="I34" s="11">
+        <v>123386</v>
       </c>
       <c r="J34" s="11">
-        <v>123386</v>
+        <v>10995</v>
       </c>
       <c r="K34" s="11">
-        <v>10995</v>
+        <v>9552</v>
       </c>
       <c r="L34" s="11">
-        <v>9552</v>
+        <v>8241</v>
       </c>
       <c r="M34" s="11">
-        <v>8241</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>54827</v>
+        <v>0</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -1775,8 +1777,8 @@
       <c r="H35" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="15" t="s">
-        <v>27</v>
+      <c r="I35" s="15">
+        <v>0</v>
       </c>
       <c r="J35" s="15">
         <v>0</v>
@@ -1791,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
@@ -1811,8 +1813,8 @@
       <c r="H36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>27</v>
+      <c r="I36" s="11">
+        <v>0</v>
       </c>
       <c r="J36" s="11">
         <v>0</v>
@@ -1827,43 +1829,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>770168</v>
+        <v>1673244</v>
       </c>
       <c r="E37" s="17">
-        <v>1673244</v>
+        <v>1613796</v>
       </c>
       <c r="F37" s="17">
-        <v>1613796</v>
+        <v>1845673</v>
       </c>
       <c r="G37" s="17">
-        <v>1845673</v>
+        <v>1575833</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="17" t="s">
-        <v>27</v>
+      <c r="I37" s="17">
+        <v>1802976</v>
       </c>
       <c r="J37" s="17">
-        <v>1802976</v>
+        <v>1473058</v>
       </c>
       <c r="K37" s="17">
-        <v>1473058</v>
+        <v>1529500</v>
       </c>
       <c r="L37" s="17">
-        <v>1529500</v>
+        <v>1547218</v>
       </c>
       <c r="M37" s="17">
-        <v>1547218</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4977006</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>53</v>
       </c>
@@ -1883,8 +1885,8 @@
       <c r="H38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>27</v>
+      <c r="I38" s="11">
+        <v>0</v>
       </c>
       <c r="J38" s="11">
         <v>0</v>
@@ -1899,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>54</v>
       </c>
@@ -1935,31 +1937,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>216638</v>
+        <v>31074</v>
       </c>
       <c r="E40" s="11">
+        <v>74875</v>
+      </c>
+      <c r="F40" s="11">
         <v>31074</v>
       </c>
-      <c r="F40" s="11">
-        <v>74875</v>
-      </c>
       <c r="G40" s="11">
-        <v>31074</v>
+        <v>8315</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>27</v>
+      <c r="I40" s="11">
+        <v>8315</v>
       </c>
       <c r="J40" s="11">
-        <v>8315</v>
+        <v>0</v>
       </c>
       <c r="K40" s="11">
         <v>0</v>
@@ -1971,115 +1973,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>24848</v>
+        <v>45467</v>
       </c>
       <c r="E41" s="15">
-        <v>45467</v>
+        <v>46803</v>
       </c>
       <c r="F41" s="15">
-        <v>46803</v>
+        <v>81333</v>
       </c>
       <c r="G41" s="15">
-        <v>81333</v>
+        <v>87408</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="15" t="s">
-        <v>27</v>
+      <c r="I41" s="15">
+        <v>96273</v>
       </c>
       <c r="J41" s="15">
-        <v>96273</v>
+        <v>130268</v>
       </c>
       <c r="K41" s="15">
-        <v>130268</v>
+        <v>144475</v>
       </c>
       <c r="L41" s="15">
-        <v>144475</v>
+        <v>157260</v>
       </c>
       <c r="M41" s="15">
-        <v>157260</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>181145</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>241486</v>
+        <v>76541</v>
       </c>
       <c r="E42" s="19">
-        <v>76541</v>
+        <v>121678</v>
       </c>
       <c r="F42" s="19">
-        <v>121678</v>
+        <v>112407</v>
       </c>
       <c r="G42" s="19">
-        <v>112407</v>
+        <v>95723</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="19" t="s">
-        <v>27</v>
+      <c r="I42" s="19">
+        <v>104588</v>
       </c>
       <c r="J42" s="19">
-        <v>104588</v>
+        <v>130268</v>
       </c>
       <c r="K42" s="19">
-        <v>130268</v>
+        <v>144475</v>
       </c>
       <c r="L42" s="19">
-        <v>144475</v>
+        <v>157260</v>
       </c>
       <c r="M42" s="19">
-        <v>157260</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>181145</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>1011654</v>
+        <v>1749785</v>
       </c>
       <c r="E43" s="17">
-        <v>1749785</v>
+        <v>1735474</v>
       </c>
       <c r="F43" s="17">
-        <v>1735474</v>
+        <v>1958080</v>
       </c>
       <c r="G43" s="17">
-        <v>1958080</v>
+        <v>1671556</v>
       </c>
       <c r="H43" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="17" t="s">
-        <v>27</v>
+      <c r="I43" s="17">
+        <v>1907564</v>
       </c>
       <c r="J43" s="17">
-        <v>1907564</v>
+        <v>1603326</v>
       </c>
       <c r="K43" s="17">
-        <v>1603326</v>
+        <v>1673975</v>
       </c>
       <c r="L43" s="17">
-        <v>1673975</v>
+        <v>1704478</v>
       </c>
       <c r="M43" s="17">
-        <v>1704478</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5158151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>59</v>
       </c>
@@ -2095,7 +2097,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>60</v>
       </c>
@@ -2115,14 +2117,14 @@
       <c r="H45" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="15" t="s">
-        <v>27</v>
+      <c r="I45" s="15">
+        <v>500000</v>
       </c>
       <c r="J45" s="15">
         <v>500000</v>
       </c>
       <c r="K45" s="15">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="L45" s="15">
         <v>1000000</v>
@@ -2131,7 +2133,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>61</v>
       </c>
@@ -2151,8 +2153,8 @@
       <c r="H46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="11" t="s">
-        <v>27</v>
+      <c r="I46" s="11">
+        <v>0</v>
       </c>
       <c r="J46" s="11">
         <v>0</v>
@@ -2167,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>62</v>
       </c>
@@ -2187,14 +2189,14 @@
       <c r="H47" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="15" t="s">
-        <v>27</v>
+      <c r="I47" s="15">
+        <v>0</v>
       </c>
       <c r="J47" s="15">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="K47" s="15">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="L47" s="15">
         <v>0</v>
@@ -2203,43 +2205,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
-        <v>0</v>
+        <v>-183352</v>
       </c>
       <c r="E48" s="11">
-        <v>-183352</v>
+        <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-379697</v>
       </c>
       <c r="G48" s="11">
-        <v>-379697</v>
+        <v>-280345</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>27</v>
+      <c r="I48" s="11">
+        <v>-280345</v>
       </c>
       <c r="J48" s="11">
-        <v>-280345</v>
+        <v>-203394</v>
       </c>
       <c r="K48" s="11">
-        <v>-203394</v>
+        <v>-259766</v>
       </c>
       <c r="L48" s="11">
-        <v>-259766</v>
+        <v>-258271</v>
       </c>
       <c r="M48" s="11">
-        <v>-258271</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-264640</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>64</v>
       </c>
@@ -2259,8 +2261,8 @@
       <c r="H49" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="15" t="s">
-        <v>27</v>
+      <c r="I49" s="15">
+        <v>0</v>
       </c>
       <c r="J49" s="15">
         <v>0</v>
@@ -2275,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>65</v>
       </c>
@@ -2295,14 +2297,14 @@
       <c r="H50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>27</v>
+      <c r="I50" s="11">
+        <v>50000</v>
       </c>
       <c r="J50" s="11">
         <v>50000</v>
       </c>
       <c r="K50" s="11">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="L50" s="11">
         <v>100000</v>
@@ -2311,7 +2313,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>66</v>
       </c>
@@ -2331,8 +2333,8 @@
       <c r="H51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I51" s="15" t="s">
-        <v>27</v>
+      <c r="I51" s="15">
+        <v>0</v>
       </c>
       <c r="J51" s="15">
         <v>0</v>
@@ -2347,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>67</v>
       </c>
@@ -2383,7 +2385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>68</v>
       </c>
@@ -2403,8 +2405,8 @@
       <c r="H53" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I53" s="15" t="s">
-        <v>27</v>
+      <c r="I53" s="15">
+        <v>0</v>
       </c>
       <c r="J53" s="15">
         <v>0</v>
@@ -2419,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>69</v>
       </c>
@@ -2455,7 +2457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>70</v>
       </c>
@@ -2475,8 +2477,8 @@
       <c r="H55" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="15" t="s">
-        <v>27</v>
+      <c r="I55" s="15">
+        <v>0</v>
       </c>
       <c r="J55" s="15">
         <v>0</v>
@@ -2491,115 +2493,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>794995</v>
+        <v>1075189</v>
       </c>
       <c r="E56" s="11">
-        <v>1075189</v>
+        <v>572311</v>
       </c>
       <c r="F56" s="11">
-        <v>572311</v>
+        <v>1244488</v>
       </c>
       <c r="G56" s="11">
-        <v>1244488</v>
+        <v>1525218</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I56" s="11" t="s">
-        <v>27</v>
+      <c r="I56" s="11">
+        <v>1879899</v>
       </c>
       <c r="J56" s="11">
-        <v>1879899</v>
+        <v>2199900</v>
       </c>
       <c r="K56" s="11">
-        <v>2199900</v>
+        <v>2907324</v>
       </c>
       <c r="L56" s="11">
-        <v>2907324</v>
+        <v>4272256</v>
       </c>
       <c r="M56" s="11">
-        <v>4272256</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2495422</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>1344995</v>
+        <v>1441837</v>
       </c>
       <c r="E57" s="17">
-        <v>1441837</v>
+        <v>1122311</v>
       </c>
       <c r="F57" s="17">
-        <v>1122311</v>
+        <v>1414791</v>
       </c>
       <c r="G57" s="17">
-        <v>1414791</v>
+        <v>1794873</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I57" s="17" t="s">
-        <v>27</v>
+      <c r="I57" s="17">
+        <v>2149554</v>
       </c>
       <c r="J57" s="17">
-        <v>2149554</v>
+        <v>3046506</v>
       </c>
       <c r="K57" s="17">
-        <v>3046506</v>
+        <v>3747558</v>
       </c>
       <c r="L57" s="17">
-        <v>3747558</v>
+        <v>5113985</v>
       </c>
       <c r="M57" s="17">
-        <v>5113985</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3330782</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>2356649</v>
+        <v>3191622</v>
       </c>
       <c r="E58" s="19">
-        <v>3191622</v>
+        <v>2857785</v>
       </c>
       <c r="F58" s="19">
-        <v>2857785</v>
+        <v>3372871</v>
       </c>
       <c r="G58" s="19">
-        <v>3372871</v>
+        <v>3466429</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="19" t="s">
-        <v>27</v>
+      <c r="I58" s="19">
+        <v>4057118</v>
       </c>
       <c r="J58" s="19">
-        <v>4057118</v>
+        <v>4649832</v>
       </c>
       <c r="K58" s="19">
-        <v>4649832</v>
+        <v>5421533</v>
       </c>
       <c r="L58" s="19">
-        <v>5421533</v>
+        <v>6818463</v>
       </c>
       <c r="M58" s="19">
-        <v>6818463</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>8488933</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
